--- a/pred_ohlcv/54_21/2019-10-30 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-509.5775</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-510.7775</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1445.2857</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1445.2857</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1392.5474</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1392.6474</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1380.9227</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1348.4348</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1863.1319</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2156.3417</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-10365.8154</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5873.922037180002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-5892.910937180002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-5892.810937180002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7557.705037180001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7592.818537180002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7592.708537180002</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7699.671337180002</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7479.711337180001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7479.611337180001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7410.053237180001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7717.683037180001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-7055.270737180001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9000.986937180001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8772.693737180001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8799.420737180002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-9000.130137180002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-9032.528137180001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-8729.274337180001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-8748.32433718</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8764.17693718</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8764.17693718</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8764.06693718</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9906.81693718</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-12228.88263717999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-12212.98433717999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-12230.87433717999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-12230.67433717999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-12222.10403717999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-12222.00403717999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-12252.16713717999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-11895.29503717999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-11895.19503717999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-12347.40973717999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-26897.30302921999</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-27272.30292921999</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-27272.20292921999</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-27272.10292921999</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-27790.06112921999</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-27789.96112922</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-24815.89462921999</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-24815.79462921999</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-509.5775</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-510.7775</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1445.2857</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1445.2857</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1392.5474</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-10365.8154</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5873.922037180002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-5892.910937180002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-5892.810937180002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7557.705037180001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7592.818537180002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7592.708537180002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-7969.641337180002</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7699.671337180002</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7479.711337180001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7479.611337180001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7410.053237180001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7717.683037180001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-7055.270737180001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9000.986937180001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8772.693737180001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8799.420737180002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-9000.130137180002</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-9032.528137180001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-8729.274337180001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-8748.32433718</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8764.17693718</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8764.17693718</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9906.81693718</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-9942.81693718</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-9942.81693718</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-9779.76953718</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-9555.66173718</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9895.66173718</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-10726.18533718</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-11324.32293718</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-11106.96193718</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-11076.96193718</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-11600.27133718</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-11648.27133718</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-11648.17133718</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-11671.15873718</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-12228.88263717999</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-12212.98433717999</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-12230.87433717999</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-12230.67433717999</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-12222.10403717999</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-12222.00403717999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-12252.16713717999</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-11895.29503717999</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-11895.19503717999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-12347.40973717999</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-27272.10292921999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-27789.96112922</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-24877.00482921999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-25107.00482921999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-25122.96482921999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-25121.96482921999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-23496.48992921999</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-23181.54392921999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-23097.54392921999</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-25380.62892921999</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-25375.72512921999</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-25296.70182921999</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-24815.79462921999</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-24815.79462921999</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-24815.69462921999</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-24757.58712922</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-24743.11712921999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-24699.64212922</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-24614.77932922</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-25776.67122922</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-26591.00022922</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-26907.52442922</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-26907.42442922</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-26925.89582922</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-26873.09402922</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-26920.37402922</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-26920.37402922</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
